--- a/NLP_FORCE/test_data.xlsx
+++ b/NLP_FORCE/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chubu\OneDrive\Рабочий стол\news_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chubu\OneDrive\Рабочий стол\news_ai\NLP_FORCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B28B8D-171C-49E3-9DA7-AFCB566BE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C086099-F250-4A15-B0CB-AEE6EBDEA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A682E37-E9D9-42F4-9CBF-E7BE407AB4B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>text</t>
   </si>
@@ -33,59 +33,454 @@
     <t>channel_id</t>
   </si>
   <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
-    <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
-  </si>
-  <si>
-    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
-  </si>
-  <si>
-    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Павел Прилучный устроил разборку в центре Москвы, на шоу "Ледниковый период" снова замены и другие</t>
-  </si>
-  <si>
-    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
-  </si>
-  <si>
-    <t>Первая ночная неконференция от Слёрма «IT-голики» — для всех, кто в айти</t>
-  </si>
-  <si>
-    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
-  </si>
-  <si>
-    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
-  </si>
-  <si>
-    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
-  </si>
-  <si>
-    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
-  </si>
-  <si>
-    <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Блогер-гурман поделился рецептом приготовления необычного блюда из местных продуктов.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -112,8 +507,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -428,19 +828,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519A997C-5155-4E9B-A480-39047AEA511E}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -448,7 +848,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -456,132 +856,1119 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2222312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NLP_FORCE/test_data.xlsx
+++ b/NLP_FORCE/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chubu\OneDrive\Рабочий стол\news_ai\NLP_FORCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C086099-F250-4A15-B0CB-AEE6EBDEA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D143B2A6-100C-4D54-AF5A-B24CDFEDCD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A682E37-E9D9-42F4-9CBF-E7BE407AB4B7}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
   </si>
   <si>
-    <t>Блогер-гурман поделился рецептом приготовления необычного блюда из местных продуктов.</t>
-  </si>
-  <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
   </si>
 </sst>
 </file>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519A997C-5155-4E9B-A480-39047AEA511E}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>140</v>
